--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_20-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_20-06.xlsx
@@ -362,7 +362,7 @@
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:19</t>
+    <t>0:17</t>
   </si>
   <si>
     <t>RESTOHERB SYRUP</t>
@@ -3253,11 +3253,11 @@
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>169.19999999999999</v>
+        <v>225.59999999999999</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.40000000000000002</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3964,7 +3964,7 @@
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="K116" s="11">
-        <v>6261.6000000000004</v>
+        <v>6318</v>
       </c>
       <c r="L116" s="11"/>
       <c r="M116" s="11"/>
